--- a/templates/report/paises.xlsx
+++ b/templates/report/paises.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16B1738-8929-454F-8CD4-B6BA4B1CC6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ABD691-E485-408B-A5DE-187D038213D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>.</t>
   </si>
@@ -47,7 +44,7 @@
     <t>Nombre</t>
   </si>
   <si>
-    <t>Name</t>
+    <t>Paises</t>
   </si>
 </sst>
 </file>
@@ -70,12 +67,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="10"/>
       <color theme="10"/>
@@ -89,8 +80,14 @@
       <name val="Century Gothic"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -100,12 +97,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00BFB2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -132,23 +123,23 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hipervínculo 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -538,38 +529,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
-        <v>1</v>
+      <c r="A3" s="4" t="s">
+        <v>0</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -578,14 +564,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -786,21 +770,20 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -825,9 +808,12 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/report/paises.xlsx
+++ b/templates/report/paises.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7ABD691-E485-408B-A5DE-187D038213D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F2A72-DA14-4BBE-BB12-D88C6AC5900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="41" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Código</t>
   </si>
@@ -540,21 +537,19 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="A3" s="4"/>
       <c r="B3" s="5"/>
     </row>
   </sheetData>
@@ -564,12 +559,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -770,20 +767,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -808,12 +806,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/templates/report/paises.xlsx
+++ b/templates/report/paises.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data\Development\projects\ciber\cotown\back\templates\report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{805F2A72-DA14-4BBE-BB12-D88C6AC5900D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E16BBDD1-37C2-4376-B0DA-536E44208ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Paises" sheetId="41" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Paises!$A$2:$B$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -530,7 +533,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44.28515625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -553,23 +556,13 @@
       <c r="B3" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:B2" xr:uid="{F48469C1-5DA9-43F7-A0B7-76DC91FAD532}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001BDC921D6C313740BA67D7760DC75571" ma:contentTypeVersion="9" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="ec6cd274e87ab0abf30bec2e834aaf15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="220d4249-f262-4642-a86b-ff46de6e315d" xmlns:ns3="965e701d-44ad-4371-a199-8fefe953808c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0e77808c4f084d99d477d3de919e85b9" ns2:_="" ns3:_="">
     <xsd:import namespace="220d4249-f262-4642-a86b-ff46de6e315d"/>
@@ -766,6 +759,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="220d4249-f262-4642-a86b-ff46de6e315d">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -776,17 +780,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
-    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2190EF49-E186-4D77-87E3-BC317999ED9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -805,6 +798,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FC650EC1-3E41-4FC6-BA6C-52921951A8DA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="220d4249-f262-4642-a86b-ff46de6e315d"/>
+    <ds:schemaRef ds:uri="965e701d-44ad-4371-a199-8fefe953808c"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{91323775-37AE-44DC-8259-7FCDE5D849E0}">
   <ds:schemaRefs>
